--- a/hiqu/Performance Evaluation/September 2024/QA/Hamza Nouman.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Hamza Nouman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFFD50A-C5B6-42AE-9E9C-0D06B76D6485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817F12F-BD7F-49CD-910A-F3144D8F7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Employee Name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Number of Bugs</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -276,12 +273,6 @@
     <t>Testing and Verification</t>
   </si>
   <si>
-    <t>QA Verification</t>
-  </si>
-  <si>
-    <t>Internal Meetings</t>
-  </si>
-  <si>
     <t>Meetings</t>
   </si>
   <si>
@@ -298,16 +289,35 @@
   </si>
   <si>
     <t>2024-25</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Google Drive integration. (Setup and Integration development)</t>
+  </si>
+  <si>
+    <t>Regular testing and QA new project/assignment/task</t>
+  </si>
+  <si>
+    <t>NEXELUS 2024.2</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +397,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -556,7 +572,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -564,8 +580,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -632,6 +649,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,12 +732,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Currency 2" xfId="3" xr:uid="{8180B592-B2B1-4676-AFAD-227D0E36D85D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C6FF6618-242E-45B7-94CB-EA40EC999215}"/>
@@ -1039,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,18 +1090,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="33"/>
+      <c r="B2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="42"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
@@ -1070,11 +1109,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1082,11 +1121,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
+      <c r="C6" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1094,11 +1133,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="C7" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1106,11 +1145,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1118,24 +1157,24 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="C9" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="39">
+        <v>56</v>
+      </c>
+      <c r="C10" s="48">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.1342465753424658</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+        <v>1.1863013698630136</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -1143,309 +1182,313 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="C11" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="B13" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="54">
+        <v>30</v>
+      </c>
+      <c r="C16" s="32">
         <v>0.8</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="54">
+      <c r="E16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="32">
         <v>0.6</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="55">
+      <c r="J16" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="54">
+        <v>31</v>
+      </c>
+      <c r="C17" s="32">
         <v>0.7</v>
       </c>
-      <c r="E17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="54">
+      <c r="E17" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="32">
         <v>0.6</v>
       </c>
-      <c r="J17" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="55">
+      <c r="J17" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="54">
+        <v>32</v>
+      </c>
+      <c r="C18" s="32">
         <v>0.7</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="54">
+      <c r="E18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="32">
         <v>0.6</v>
       </c>
-      <c r="J18" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="55">
+      <c r="J18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="54">
+        <v>33</v>
+      </c>
+      <c r="C19" s="32">
         <v>0.8</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="54">
+      <c r="E19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="32">
         <v>0.8</v>
       </c>
-      <c r="J19" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="55">
+      <c r="J19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="54">
+        <v>34</v>
+      </c>
+      <c r="C20" s="32">
         <v>0.8</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="54">
+      <c r="E20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="32">
         <v>0.8</v>
       </c>
-      <c r="J20" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="55">
+      <c r="J20" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="33">
         <v>0.7</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="54">
+        <v>35</v>
+      </c>
+      <c r="C21" s="32">
         <v>0.7</v>
       </c>
-      <c r="E21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="54">
+      <c r="E21" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="32">
         <v>0.7</v>
       </c>
-      <c r="J21" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="55">
+      <c r="J21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="33">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="54">
+        <v>49</v>
+      </c>
+      <c r="C22" s="32">
         <v>0.8</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="54">
+      <c r="E22" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="32">
         <v>0.7</v>
       </c>
-      <c r="J22" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="55">
+      <c r="J22" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="33">
         <v>0.65</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="54">
+        <v>50</v>
+      </c>
+      <c r="C23" s="32">
         <v>0.8</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="54"/>
-      <c r="J23" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="55">
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="32"/>
+      <c r="J23" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
+      <c r="B25" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="G27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="K27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="M27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="N27" s="27" t="s">
         <v>69</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2">
         <v>22</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1458,13 +1501,17 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>18</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1477,13 +1524,17 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1496,13 +1547,17 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1515,13 +1570,17 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1534,13 +1593,17 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1">
+        <v>20</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1553,13 +1616,17 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1572,13 +1639,17 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1719,336 +1790,486 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:U13"/>
+  <dimension ref="B2:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="5" customWidth="1"/>
-    <col min="18" max="20" width="9.28515625" style="5"/>
-    <col min="21" max="21" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="2.28515625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="40" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" style="5" customWidth="1"/>
+    <col min="19" max="21" width="9.28515625" style="5"/>
+    <col min="22" max="22" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="52" t="s">
+      <c r="D6" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="O6" s="13" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="59"/>
+      <c r="P6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="48" t="s">
+      <c r="R6" s="13"/>
+      <c r="S6" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="50"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="59"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="K7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+      <c r="P7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="T7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="10" t="s">
+      <c r="V7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1"/>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="O8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="38"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="29" t="s">
-        <v>79</v>
+      <c r="U8" s="2"/>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="31">
+        <v>10</v>
+      </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="31">
+        <v>70</v>
+      </c>
       <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="38">
+        <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
+        <v>80</v>
+      </c>
+      <c r="R9" s="15"/>
       <c r="S9" s="2">
         <v>0</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="7">
-        <f>SUM(R9:T9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="7">
+        <f>SUM(S9:U9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
-      <c r="O10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="38"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
-        <f>SUM(D8:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" ref="E12:I12" si="0">SUM(E8:E10)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="U10" s="2"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>50</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="38">
+        <f>D11+E11+F11+G11+H11+I11+J11+M11</f>
+        <v>50</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="7">
+        <f>SUM(S11:U11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="38"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="38">
+        <f>D13+E13+F13+G13+H13+I13+J13+M13</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="7">
+        <f>SUM(S13:U13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="38"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="15"/>
+      <c r="P15" s="38"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17">
+        <f>SUM(D8:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" ref="E17:J17" si="0">SUM(E8:E15)</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
+        <v>70</v>
+      </c>
+      <c r="I17" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17">
-        <f>SUM(K8:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="17">
-        <f>SUM(L8:L11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" ref="M12" si="1">IF(K12=0,0,(L12-K12)/K12)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17">
-        <f>SUM(R8:R11)</f>
+      <c r="J17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17">
+        <f>SUM(L8:L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="17">
+        <f>SUM(M8:M16)</f>
+        <v>51</v>
+      </c>
+      <c r="N17" s="18">
+        <f t="shared" ref="N17" si="1">IF(L17=0,0,(M17-L17)/L17)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17">
+        <f>SUM(S8:S16)</f>
         <v>1</v>
       </c>
-      <c r="S12" s="17">
-        <f>SUM(S8:S11)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="17">
-        <f>SUM(T8:T11)</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
-        <f>SUM(U8:U11)</f>
+      <c r="T17" s="17">
+        <f>SUM(T8:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <f>SUM(U8:U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <f>SUM(V8:V16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B3:U3"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="B4:U4"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B3:V3"/>
+    <mergeCell ref="B2:V2"/>
+    <mergeCell ref="B4:V4"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="R9">
+  <conditionalFormatting sqref="S9:S14">
     <cfRule type="expression" priority="3">
-      <formula>R9/$U9</formula>
+      <formula>S9/$V9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/QA/Hamza Nouman.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Hamza Nouman.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817F12F-BD7F-49CD-910A-F3144D8F7582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C4316-5246-410B-8ACD-8CF72BBBF304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Evaluations" sheetId="3" r:id="rId2"/>
+    <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
   <si>
     <t>Employee Name</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Overall Commitment</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
     <t>Database understanding</t>
   </si>
   <si>
@@ -307,6 +305,21 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Jul-Sep</t>
+  </si>
+  <si>
+    <t>Oct-Dec</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Apr-Jun</t>
   </si>
 </sst>
 </file>
@@ -400,8 +413,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -582,7 +595,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,7 +646,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -674,18 +686,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,14 +697,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1076,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,599 +1093,353 @@
     <col min="4" max="14" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="42"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="46"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
+      <c r="C5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="C6" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
+      <c r="C7" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="48">
+        <v>55</v>
+      </c>
+      <c r="C10" s="43">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.1863013698630136</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+        <v>1.1945205479452055</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="C11" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="33">
-        <v>0.6</v>
-      </c>
+    <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="32">
-        <v>0.6</v>
-      </c>
-      <c r="J18" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="33">
-        <v>0.7</v>
-      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="J21" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="33">
-        <v>0.8</v>
-      </c>
+      <c r="B21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="32">
-        <v>0.7</v>
-      </c>
-      <c r="J22" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="33">
-        <v>0.65</v>
-      </c>
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="32"/>
-      <c r="J23" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="33">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="2">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2">
-        <v>21</v>
-      </c>
-      <c r="D29" s="2">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
         <v>0</v>
       </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2">
-        <v>7</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1689,9 +1447,508 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B13:N13"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ED319C-EE40-47F2-9EE8-C614D72A52FC}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.8</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:C13">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{264318A2-F762-49F7-9FA4-77FB5BC3591B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C25">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB3B7B90-D0E2-420F-B088-07986FF30A02}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8490B49A-25E5-4D9D-AB8E-DC965E295035}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{254ED800-5F1A-4B1E-9B1E-0A6304411DA8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3401A913-3101-4927-BD9A-336050160379}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DA223B42-E408-4F98-ABB1-67ED26E5BD25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B1470E73-8BB0-457A-977B-F1E0CE9F5488}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0EA89D2-6948-49E8-B094-531C9AE04631}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C70209A-7ED7-4DA3-BF96-E0761D93196B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1700,12 +1957,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FACDD379-A619-4A91-898A-2DA8728622F4}</x14:id>
+          <x14:id>{928F5653-3E32-41A2-AB6D-3E1828FF71ED}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
+  <conditionalFormatting sqref="F18:F25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1714,12 +1971,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D5C05849-E63C-4AF6-83C5-C9D68A51E2CA}</x14:id>
+          <x14:id>{687819A5-F16B-49D1-BD3B-F47A29121181}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
+  <conditionalFormatting sqref="F30:F37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1728,7 +1985,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EEEF7AA4-22FE-4405-B4F4-92BF58692FDC}</x14:id>
+          <x14:id>{52E8CC4C-C761-4445-9994-B27D5D1063B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1738,7 +1995,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FACDD379-A619-4A91-898A-2DA8728622F4}">
+          <x14:cfRule type="dataBar" id="{264318A2-F762-49F7-9FA4-77FB5BC3591B}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1750,10 +2007,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>C6:C13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D5C05849-E63C-4AF6-83C5-C9D68A51E2CA}">
+          <x14:cfRule type="dataBar" id="{EB3B7B90-D0E2-420F-B088-07986FF30A02}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1765,10 +2022,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>C18:C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EEEF7AA4-22FE-4405-B4F4-92BF58692FDC}">
+          <x14:cfRule type="dataBar" id="{8490B49A-25E5-4D9D-AB8E-DC965E295035}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1780,7 +2037,142 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>C30:C37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{254ED800-5F1A-4B1E-9B1E-0A6304411DA8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D6:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3401A913-3101-4927-BD9A-336050160379}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D18:D25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DA223B42-E408-4F98-ABB1-67ED26E5BD25}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B1470E73-8BB0-457A-977B-F1E0CE9F5488}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0EA89D2-6948-49E8-B094-531C9AE04631}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C70209A-7ED7-4DA3-BF96-E0761D93196B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{928F5653-3E32-41A2-AB6D-3E1828FF71ED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F6:F13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{687819A5-F16B-49D1-BD3B-F47A29121181}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F18:F25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{52E8CC4C-C761-4445-9994-B27D5D1063B6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F30:F37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1788,7 +2180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:V18"/>
   <sheetViews>
@@ -1810,7 +2202,7 @@
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="40" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="39" customWidth="1"/>
     <col min="17" max="17" width="2.28515625" style="5" customWidth="1"/>
     <col min="18" max="18" width="8.42578125" style="5" customWidth="1"/>
     <col min="19" max="21" width="9.28515625" style="5"/>
@@ -1818,79 +2210,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
+      <c r="B3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
+      <c r="B4" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1899,55 +2291,55 @@
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" s="61" t="s">
+      <c r="D6" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="59"/>
-      <c r="P6" s="36" t="s">
+      <c r="M6" s="53"/>
+      <c r="N6" s="54"/>
+      <c r="P6" s="35" t="s">
         <v>9</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="S6" s="57" t="s">
+      <c r="S6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-      <c r="V6" s="59"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="D7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="L7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1957,8 +2349,8 @@
       <c r="N7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="37" t="s">
-        <v>89</v>
+      <c r="P7" s="36" t="s">
+        <v>88</v>
       </c>
       <c r="R7" s="14" t="s">
         <v>24</v>
@@ -1977,10 +2369,10 @@
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="34"/>
+      <c r="B8" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1991,7 +2383,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="P8" s="38"/>
+      <c r="P8" s="37"/>
       <c r="R8" s="7"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -1999,17 +2391,17 @@
       <c r="V8" s="7"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31">
+      <c r="B9" s="34"/>
+      <c r="C9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
         <v>10</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30">
         <v>70</v>
       </c>
       <c r="I9" s="2"/>
@@ -2018,7 +2410,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="7"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="38">
+      <c r="P9" s="37">
         <f>D9+E9+F9+G9+H9+I9+J9+M9</f>
         <v>80</v>
       </c>
@@ -2038,22 +2430,22 @@
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="B10" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="7"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="38"/>
+      <c r="P10" s="37"/>
       <c r="R10" s="15"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -2061,15 +2453,15 @@
       <c r="V10" s="7"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
@@ -2078,7 +2470,7 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="38">
+      <c r="P11" s="37">
         <f>D11+E11+F11+G11+H11+I11+J11+M11</f>
         <v>50</v>
       </c>
@@ -2094,22 +2486,22 @@
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="7"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="38"/>
+      <c r="P12" s="37"/>
       <c r="R12" s="15"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2118,14 +2510,14 @@
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="C13" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
@@ -2134,7 +2526,7 @@
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="38">
+      <c r="P13" s="37">
         <f>D13+E13+F13+G13+H13+I13+J13+M13</f>
         <v>1</v>
       </c>
@@ -2149,19 +2541,19 @@
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="7"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="38"/>
+      <c r="P14" s="37"/>
       <c r="R14" s="15"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -2181,7 +2573,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="15"/>
-      <c r="P15" s="38"/>
+      <c r="P15" s="37"/>
       <c r="R15" s="7"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -2235,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="17"/>
-      <c r="P17" s="39"/>
+      <c r="P17" s="38"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17">
